--- a/biology/Botanique/Iodes_kamerunensis/Iodes_kamerunensis.xlsx
+++ b/biology/Botanique/Iodes_kamerunensis/Iodes_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Iodes kamerunensis est une espèce de plantes lianeuses de la famille des Icacinaceae et du genre Iodes[1], présente principalement au Cameroun, également au Nigeria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iodes kamerunensis est une espèce de plantes lianeuses de la famille des Icacinaceae et du genre Iodes, présente principalement au Cameroun, également au Nigeria.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une liane dioïque, couverte de poils doux, jaunes à brun rouille, avec des vrilles extra-axillaires. les feuilles sont densément tomenteuses sur la face inférieure. Les fleurs mâles sont pourvues d'un calice ; les fleurs femelles sont encore inconnues[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une liane dioïque, couverte de poils doux, jaunes à brun rouille, avec des vrilles extra-axillaires. les feuilles sont densément tomenteuses sur la face inférieure. Les fleurs mâles sont pourvues d'un calice ; les fleurs femelles sont encore inconnues.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En janvier 1896[3], elle a été découverte une première fois, en fleur, par Alois Staudt à la Johann-Albrechts-Höhe, une station au bord du lac Barombi Mbo[4], dans la région du Sud-Ouest, près de Kumba.
-Au Cameroun, l'espèce a ensuite été collectée à plusieurs reprises, notamment par Zenker à Bipindi en 1904 et 1908, par Letouzey près de Makak en 1972. Elle a également été signalée près de Calabar au Nigeria en 1957[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 1896, elle a été découverte une première fois, en fleur, par Alois Staudt à la Johann-Albrechts-Höhe, une station au bord du lac Barombi Mbo, dans la région du Sud-Ouest, près de Kumba.
+Au Cameroun, l'espèce a ensuite été collectée à plusieurs reprises, notamment par Zenker à Bipindi en 1904 et 1908, par Letouzey près de Makak en 1972. Elle a également été signalée près de Calabar au Nigeria en 1957.
 </t>
         </is>
       </c>
